--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999974469439912</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991285255131781</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999985745292305</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999993236506507</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999994589307688</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G2" t="n">
-        <v>2.383165718077677e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008134831801393762</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I2" t="n">
-        <v>4.101773120179128e-07</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J2" t="n">
-        <v>7.048816755969982e-07</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>5.575294938074554e-07</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L2" t="n">
-        <v>8.989461934425194e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001543750536219397</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001856768006</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001609471192550413</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P2" t="n">
-        <v>139.8941616409578</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q2" t="n">
-        <v>209.3700836584452</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_1</t>
+          <t>model_38_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999978029434801</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991266544407278</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999974107138789</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999992331243316</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999992508479133</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G3" t="n">
-        <v>2.050855821762809e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008152297441411416</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I3" t="n">
-        <v>7.450636265854873e-07</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J3" t="n">
-        <v>7.992269182455251e-07</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>7.719425899457934e-07</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L3" t="n">
-        <v>8.965821152976876e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001432080941065416</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001597859287</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001493047591542798</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P3" t="n">
-        <v>140.1945067558027</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q3" t="n">
-        <v>209.6704287732901</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_2</t>
+          <t>model_38_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999980569004917</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991248189218402</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999958568754892</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999991112141527</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999989720429705</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G4" t="n">
-        <v>1.813798098782822e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008169431204527444</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I4" t="n">
-        <v>1.192178550038696e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J4" t="n">
-        <v>9.262799734114353e-07</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.059229261725065e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L4" t="n">
-        <v>8.952843106519957e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001346773217280037</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001413163279</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001404108141344542</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P4" t="n">
-        <v>140.4401750282582</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q4" t="n">
-        <v>209.9160970457456</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_3</t>
+          <t>model_38_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999982271757742</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991230226004129</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999939834342478</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999989630578254</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999986355367545</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G5" t="n">
-        <v>1.654853596749122e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008186199076557864</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I5" t="n">
-        <v>1.731258767624751e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J5" t="n">
-        <v>1.080686391201042e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.405972579412896e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L5" t="n">
-        <v>8.951751422080906e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001286411130529086</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00000128932671</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001341176315593858</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P5" t="n">
-        <v>140.6235960284539</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.0995180459413</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_4</t>
+          <t>model_38_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999983319587998</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999121280089045</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999919054414022</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999987960047889</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999982609134594</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G6" t="n">
-        <v>1.55704324184587e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008202464655302741</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I6" t="n">
-        <v>2.329198436412997e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2547866907602e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.791992563586598e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L6" t="n">
-        <v>8.95433500095494e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001247815387726033</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001213120873</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001300937472115477</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P6" t="n">
-        <v>140.7454437859147</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.2213658034021</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_5</t>
+          <t>model_38_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999983831969356</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991196156311517</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999896675062966</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999986147542941</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999978567781892</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G7" t="n">
-        <v>1.509214691146746e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008218001639123783</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I7" t="n">
-        <v>2.973161277073329e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J7" t="n">
-        <v>1.443683379484222e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.208422328278775e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L7" t="n">
-        <v>8.963191890587695e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001228500993547317</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001175856774</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001280800824190265</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P7" t="n">
-        <v>140.8078422290202</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.2837642465076</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_6</t>
+          <t>model_38_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999983941020819</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991180513175992</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999873546717276</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999984263501883</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999974381910718</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499035215749756e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008232603819482294</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I8" t="n">
-        <v>3.638676338416604e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J8" t="n">
-        <v>1.640035459761488e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.639743590371941e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L8" t="n">
-        <v>8.974670944944561e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001224350936516878</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001167925759</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001276474090640238</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P8" t="n">
-        <v>140.8213776925828</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.2972997100702</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_7</t>
+          <t>model_38_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999983736962801</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991165801974391</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999849957501732</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999982339685003</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999970124667565</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G9" t="n">
-        <v>1.518083136082758e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008246336080430049</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I9" t="n">
-        <v>4.317452868330562e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J9" t="n">
-        <v>1.840532919841624e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.078419176240768e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L9" t="n">
-        <v>8.987821979893021e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001232105164376303</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000001182766342</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001284558432033103</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P9" t="n">
-        <v>140.7961242272751</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.2720462447625</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_8</t>
+          <t>model_38_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999983301122624</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991151982844249</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999826661541935</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999980412030692</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999965891532065</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G10" t="n">
-        <v>1.558766903534071e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008259235631828353</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I10" t="n">
-        <v>4.98779100323074e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J10" t="n">
-        <v>2.041430311309876e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.514610657270307e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L10" t="n">
-        <v>9.000918680857138e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001248505868441983</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000001214463809</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001301657348024997</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P10" t="n">
-        <v>140.7432309914457</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.2191530089331</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_9</t>
+          <t>model_38_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999982701919594</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991139106076503</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999803807265287</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999978521100807</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999961744206948</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G11" t="n">
-        <v>1.614699876070208e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008271255529293183</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I11" t="n">
-        <v>5.645419764443635e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J11" t="n">
-        <v>2.238500335488033e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.941960049965834e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L11" t="n">
-        <v>9.014149877381682e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001270708415046586</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000001258042211</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001324805103004166</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P11" t="n">
-        <v>140.6727229076196</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.148644925107</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_10</t>
+          <t>model_38_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999981999024919</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991127182295573</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999781872533303</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999976690759225</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999957755914781</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G12" t="n">
-        <v>1.680312008602012e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008282385855398248</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I12" t="n">
-        <v>6.27658875064564e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J12" t="n">
-        <v>2.429255932904553e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>4.352922341775096e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L12" t="n">
-        <v>9.025320811162315e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001296268494025066</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000001309161824</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001351453327461417</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P12" t="n">
-        <v>140.5930621247737</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0689841422611</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_11</t>
+          <t>model_38_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999981214045744</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991116253055561</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999760709002075</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999974921935139</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999953906412704</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G13" t="n">
-        <v>1.753586368948942e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008292587821211208</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I13" t="n">
-        <v>6.885566538003742e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J13" t="n">
-        <v>2.613600264236221e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>4.749583401119981e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L13" t="n">
-        <v>9.038339927828182e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001324230481807809</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000001366251219</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001380605714953365</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P13" t="n">
-        <v>140.5076950268088</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q13" t="n">
-        <v>209.9836170442962</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999980396272008</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991106145062273</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999740695828233</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999973243919664</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999950265495348</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G14" t="n">
-        <v>1.829921957605939e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000830202318925659</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I14" t="n">
-        <v>7.46144294506916e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J14" t="n">
-        <v>2.788480651210381e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>5.124751437637964e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L14" t="n">
-        <v>9.048831439579277e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001352746080240464</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000001425725672</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001410335281446724</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P14" t="n">
-        <v>140.4224744762746</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.898396493762</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_13</t>
+          <t>model_38_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999979564122435</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991096936346744</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999721860771444</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999971653396635</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999946829237191</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G15" t="n">
-        <v>1.907599467534174e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008310619120986981</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I15" t="n">
-        <v>8.003419191081355e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J15" t="n">
-        <v>2.95424269986432e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>5.478830945472837e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L15" t="n">
-        <v>9.059168470739445e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001381158740889031</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000001486245641</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001439957527881417</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P15" t="n">
-        <v>140.3393298593021</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q15" t="n">
-        <v>209.8152518767895</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_14</t>
+          <t>model_38_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999978725949626</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991088449487778</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999970399929796</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999970148732454</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999943574378244</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G16" t="n">
-        <v>1.985839220052264e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008318541231301271</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I16" t="n">
-        <v>8.517380707464614e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J16" t="n">
-        <v>3.111056661538549e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>5.814218684501581e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L16" t="n">
-        <v>9.069490498966551e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001409198076940308</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000001547203664</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001469190556517825</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P16" t="n">
-        <v>140.258937904578</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q16" t="n">
-        <v>209.7348599220655</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_15</t>
+          <t>model_38_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999977921079172</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991080759352925</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999687619620343</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999968756381339</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999940583215146</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G17" t="n">
-        <v>2.060970344056043e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008325719634628209</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I17" t="n">
-        <v>8.988703745427717e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J17" t="n">
-        <v>3.256165515209319e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>6.122434630318518e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L17" t="n">
-        <v>9.078447372513027e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001435608005012525</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000001605739697</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001496724809904164</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P17" t="n">
-        <v>140.1846672905276</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.660589308015</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_16</t>
+          <t>model_38_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999977130415177</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999107366745886</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999672155737368</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999967450181613</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999937763488862</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G18" t="n">
-        <v>2.134775357329701e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008332339606440367</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I18" t="n">
-        <v>9.433674914758815e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J18" t="n">
-        <v>3.392295793472208e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>6.412985354115512e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L18" t="n">
-        <v>9.087358236895758e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0014610870464588</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000001663242533</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001523288546893694</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P18" t="n">
-        <v>140.1142982717378</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.5902202892253</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_17</t>
+          <t>model_38_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999976384187601</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991067254792797</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999658004070267</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999966246074392</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999935178611917</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G19" t="n">
-        <v>2.204432425992752e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000833832554872647</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I19" t="n">
-        <v>9.840887247430477e-06</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J19" t="n">
-        <v>3.517786135980872e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>6.679336691705674e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L19" t="n">
-        <v>9.093739948180366e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001484733116082736</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000001717513629</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001547941278655633</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P19" t="n">
-        <v>140.0500809707545</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q19" t="n">
-        <v>209.5260029882419</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_18</t>
+          <t>model_38_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999975676855016</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991061417574421</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999644873556323</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999965129862558</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999993279323139</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G20" t="n">
-        <v>2.270458817908685e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008343774335856105</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I20" t="n">
-        <v>1.021871603424568e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J20" t="n">
-        <v>3.634116146349562e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>6.925131484945303e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L20" t="n">
-        <v>9.100462996129461e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001506804173709605</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000001768955999</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001570951946899065</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P20" t="n">
-        <v>139.9910572489364</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.4669792664238</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_19</t>
+          <t>model_38_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999975005218662</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991056112358004</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999632840197724</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999964099406916</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999930579477025</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G21" t="n">
-        <v>2.333153123519298e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008348726522509197</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I21" t="n">
-        <v>1.056497432236589e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J21" t="n">
-        <v>3.741508768247e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>7.153241545306444e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L21" t="n">
-        <v>9.107251606012227e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001527466243004833</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000001817802279</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00159249364326057</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P21" t="n">
-        <v>139.9365798666742</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.4125018841617</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_20</t>
+          <t>model_38_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999974383382808</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991051312460326</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999621864683677</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999996315021433</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999928566988151</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G22" t="n">
-        <v>2.391198770872184e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008353207016300286</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I22" t="n">
-        <v>1.088079327467313e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J22" t="n">
-        <v>3.840432269986452e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.360612772329793e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L22" t="n">
-        <v>9.113419966526606e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00154635014497758</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000001863026705</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001612181472035364</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P22" t="n">
-        <v>139.8874314799963</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q22" t="n">
-        <v>209.3633534974837</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_21</t>
+          <t>model_38_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999973801204657</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999104697038825</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999611748043223</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999962278028486</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999992671336387</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G23" t="n">
-        <v>2.445542545833357e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008357260149988683</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I23" t="n">
-        <v>1.117189825391426e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J23" t="n">
-        <v>3.931330238686979e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>7.551614246300617e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L23" t="n">
-        <v>9.119006378063248e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001563823054515234</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000001905366934</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001630398239505945</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P23" t="n">
-        <v>139.8424871190346</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.318409136522</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_22</t>
+          <t>model_38_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999973262815481</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991043023907074</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999602540240707</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999996147881409</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999925023539857</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G24" t="n">
-        <v>2.495798812165954e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008360944016936076</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I24" t="n">
-        <v>1.14368515427533e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J24" t="n">
-        <v>4.014623226702786e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>7.725737384728041e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L24" t="n">
-        <v>9.12453461919273e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001579809739229998</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00000194452251</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001647065510486016</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P24" t="n">
-        <v>139.8018034296119</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q24" t="n">
-        <v>209.2777254470993</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_8_23</t>
+          <t>model_38_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999972763900897</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.99910394371541</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999959404858603</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999960763269851</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999923476021866</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G25" t="n">
-        <v>2.542370298539001e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008364292093396363</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I25" t="n">
-        <v>1.168119777309215e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J25" t="n">
-        <v>4.08919622992794e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>7.885197001510043e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L25" t="n">
-        <v>9.127870223478874e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001594481200434487</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000001980807207</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001662361566168091</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P25" t="n">
-        <v>139.7648274473645</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q25" t="n">
-        <v>209.2407494648519</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999972300368346</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991036193187577</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999586295967871</v>
+        <v>0.9997081304179736</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999960092244677</v>
+        <v>0.9998780302514776</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999992205420673</v>
+        <v>0.9998154426869914</v>
       </c>
       <c r="G26" t="n">
-        <v>2.585639027601849e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008367320193752277</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I26" t="n">
-        <v>1.190427832624952e-05</v>
+        <v>0.0001920380687406119</v>
       </c>
       <c r="J26" t="n">
-        <v>4.159129519457924e-06</v>
+        <v>6.028684880279172e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>8.03170392285372e-06</v>
+        <v>0.0001261624587717018</v>
       </c>
       <c r="L26" t="n">
-        <v>9.132762981980598e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001607992234932075</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000002014518666</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001676447793375938</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P26" t="n">
-        <v>139.7310757490374</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.2069977665249</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
   </sheetData>
